--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kishworsubedi/eclipse-workspace/AutomationFramework/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4411ED17-782F-EA4D-939C-72D9CE35D7E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECDD33D-9A7B-154E-8E6B-72E2DDA66055}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120" xr2:uid="{0102B453-A1A4-7645-85EB-C29B529C415B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Cucumber</t>
   </si>
@@ -55,21 +55,6 @@
   </si>
   <si>
     <t>Pumpkin</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>that</t>
-  </si>
-  <si>
-    <t>his</t>
-  </si>
-  <si>
-    <t>her</t>
   </si>
 </sst>
 </file>
@@ -444,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1079010-2D7B-0D42-96B0-8C612A4AAFCA}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,59 +441,44 @@
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
